--- a/biology/Zoologie/Colepiocephale/Colepiocephale.xlsx
+++ b/biology/Zoologie/Colepiocephale/Colepiocephale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colepiocephale lambei
 Colepiocephale est un genre éteint de dinosaures pachycéphalosauridés.
-L'espèce type et seule espèce, Colepiocephale lambei, a été initialement décrite en 1945 par Charles Mortram Sternberg sous le protonyme dee Stegoceras lambei[2] puis rattachée au genre Colepiocephale, spécialement créé pour elle, par Robert M. Sullivan (d) en 2003[1].
+L'espèce type et seule espèce, Colepiocephale lambei, a été initialement décrite en 1945 par Charles Mortram Sternberg sous le protonyme dee Stegoceras lambei puis rattachée au genre Colepiocephale, spécialement créé pour elle, par Robert M. Sullivan (d) en 2003.
 Colepiocephale lambei est le plus ancien pachycéphalosauridé connu, ayant vécu au Crétacé supérieur, au milieu du Campanien, alors que tous les autres pachycéphalosauridés vivaient au Maastrichtien. Il vivait dans ce qui est aujourd'hui l'Alberta, au Canada.
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colepiocephale lambei est un pachycéphalosauridé qui se caractérise principalement par l'absence de saillie latérale et sur la partie posterieure du squamosal, un os pariétal descendant bas et la présence de deux petits nodules situés sous le bord postérieur de la jonction pariéto-squamosale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colepiocephale lambei est un pachycéphalosauridé qui se caractérise principalement par l'absence de saillie latérale et sur la partie posterieure du squamosal, un os pariétal descendant bas et la présence de deux petits nodules situés sous le bord postérieur de la jonction pariéto-squamosale.
 </t>
         </is>
       </c>
@@ -545,11 +559,13 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hanssuesia appartient à la famille des Pachycephalosauridae.
-Le cladogramme suivant est modifié d'Evans et de ses collègues en 2013[3]. Il montre sa position au sein de cette famille où il est placé dans une polytomie avec les genres Hanssuesia et Stegoceras :
-Ce cladogramme diffère peu de celui de Longrich, Sankey et Tanke (2010)[4].
+Le cladogramme suivant est modifié d'Evans et de ses collègues en 2013. Il montre sa position au sein de cette famille où il est placé dans une polytomie avec les genres Hanssuesia et Stegoceras :
+Ce cladogramme diffère peu de celui de Longrich, Sankey et Tanke (2010).
 </t>
         </is>
       </c>
